--- a/excel_files/employee_performance_metrics.xlsx
+++ b/excel_files/employee_performance_metrics.xlsx
@@ -435,7 +435,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E181"/>
+  <dimension ref="A1:E193"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -462,9 +462,6 @@
       <c r="A2" s="2">
         <v>45292</v>
       </c>
-      <c r="B2" t="s">
-        <v>5</v>
-      </c>
       <c r="C2">
         <v>0</v>
       </c>
@@ -480,7 +477,7 @@
         <v>45292</v>
       </c>
       <c r="B3" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C3">
         <v>0</v>
@@ -497,7 +494,7 @@
         <v>45292</v>
       </c>
       <c r="B4" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C4">
         <v>0</v>
@@ -514,7 +511,7 @@
         <v>45292</v>
       </c>
       <c r="B5" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C5">
         <v>0</v>
@@ -531,7 +528,7 @@
         <v>45292</v>
       </c>
       <c r="B6" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C6">
         <v>0</v>
@@ -548,7 +545,7 @@
         <v>45292</v>
       </c>
       <c r="B7" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C7">
         <v>0</v>
@@ -565,7 +562,7 @@
         <v>45292</v>
       </c>
       <c r="B8" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C8">
         <v>0</v>
@@ -582,7 +579,7 @@
         <v>45292</v>
       </c>
       <c r="B9" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C9">
         <v>0</v>
@@ -599,7 +596,7 @@
         <v>45292</v>
       </c>
       <c r="B10" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C10">
         <v>0</v>
@@ -616,7 +613,7 @@
         <v>45292</v>
       </c>
       <c r="B11" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C11">
         <v>0</v>
@@ -633,7 +630,7 @@
         <v>45292</v>
       </c>
       <c r="B12" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C12">
         <v>0</v>
@@ -650,7 +647,7 @@
         <v>45292</v>
       </c>
       <c r="B13" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C13">
         <v>0</v>
@@ -667,7 +664,7 @@
         <v>45292</v>
       </c>
       <c r="B14" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C14">
         <v>0</v>
@@ -684,7 +681,7 @@
         <v>45292</v>
       </c>
       <c r="B15" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C15">
         <v>0</v>
@@ -701,7 +698,7 @@
         <v>45292</v>
       </c>
       <c r="B16" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C16">
         <v>0</v>
@@ -715,10 +712,10 @@
     </row>
     <row r="17" spans="1:5">
       <c r="A17" s="2">
-        <v>45323</v>
+        <v>45292</v>
       </c>
       <c r="B17" t="s">
-        <v>5</v>
+        <v>19</v>
       </c>
       <c r="C17">
         <v>0</v>
@@ -734,9 +731,6 @@
       <c r="A18" s="2">
         <v>45323</v>
       </c>
-      <c r="B18" t="s">
-        <v>6</v>
-      </c>
       <c r="C18">
         <v>0</v>
       </c>
@@ -752,7 +746,7 @@
         <v>45323</v>
       </c>
       <c r="B19" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C19">
         <v>0</v>
@@ -769,7 +763,7 @@
         <v>45323</v>
       </c>
       <c r="B20" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C20">
         <v>0</v>
@@ -786,7 +780,7 @@
         <v>45323</v>
       </c>
       <c r="B21" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="C21">
         <v>0</v>
@@ -803,7 +797,7 @@
         <v>45323</v>
       </c>
       <c r="B22" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C22">
         <v>0</v>
@@ -820,7 +814,7 @@
         <v>45323</v>
       </c>
       <c r="B23" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="C23">
         <v>0</v>
@@ -837,7 +831,7 @@
         <v>45323</v>
       </c>
       <c r="B24" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="C24">
         <v>0</v>
@@ -854,7 +848,7 @@
         <v>45323</v>
       </c>
       <c r="B25" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="C25">
         <v>0</v>
@@ -871,7 +865,7 @@
         <v>45323</v>
       </c>
       <c r="B26" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="C26">
         <v>0</v>
@@ -880,7 +874,7 @@
         <v>0</v>
       </c>
       <c r="E26">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="27" spans="1:5">
@@ -888,7 +882,7 @@
         <v>45323</v>
       </c>
       <c r="B27" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="C27">
         <v>0</v>
@@ -905,7 +899,7 @@
         <v>45323</v>
       </c>
       <c r="B28" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="C28">
         <v>0</v>
@@ -914,7 +908,7 @@
         <v>0</v>
       </c>
       <c r="E28">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="29" spans="1:5">
@@ -922,7 +916,7 @@
         <v>45323</v>
       </c>
       <c r="B29" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="C29">
         <v>0</v>
@@ -939,7 +933,7 @@
         <v>45323</v>
       </c>
       <c r="B30" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="C30">
         <v>0</v>
@@ -956,7 +950,7 @@
         <v>45323</v>
       </c>
       <c r="B31" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="C31">
         <v>0</v>
@@ -970,10 +964,10 @@
     </row>
     <row r="32" spans="1:5">
       <c r="A32" s="2">
-        <v>45352</v>
+        <v>45323</v>
       </c>
       <c r="B32" t="s">
-        <v>5</v>
+        <v>18</v>
       </c>
       <c r="C32">
         <v>0</v>
@@ -982,15 +976,15 @@
         <v>0</v>
       </c>
       <c r="E32">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="33" spans="1:5">
       <c r="A33" s="2">
-        <v>45352</v>
+        <v>45323</v>
       </c>
       <c r="B33" t="s">
-        <v>6</v>
+        <v>19</v>
       </c>
       <c r="C33">
         <v>0</v>
@@ -1006,9 +1000,6 @@
       <c r="A34" s="2">
         <v>45352</v>
       </c>
-      <c r="B34" t="s">
-        <v>7</v>
-      </c>
       <c r="C34">
         <v>0</v>
       </c>
@@ -1024,7 +1015,7 @@
         <v>45352</v>
       </c>
       <c r="B35" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C35">
         <v>0</v>
@@ -1033,7 +1024,7 @@
         <v>0</v>
       </c>
       <c r="E35">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="36" spans="1:5">
@@ -1041,7 +1032,7 @@
         <v>45352</v>
       </c>
       <c r="B36" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="C36">
         <v>0</v>
@@ -1058,7 +1049,7 @@
         <v>45352</v>
       </c>
       <c r="B37" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="C37">
         <v>0</v>
@@ -1075,7 +1066,7 @@
         <v>45352</v>
       </c>
       <c r="B38" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="C38">
         <v>0</v>
@@ -1092,7 +1083,7 @@
         <v>45352</v>
       </c>
       <c r="B39" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="C39">
         <v>0</v>
@@ -1109,7 +1100,7 @@
         <v>45352</v>
       </c>
       <c r="B40" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="C40">
         <v>0</v>
@@ -1126,7 +1117,7 @@
         <v>45352</v>
       </c>
       <c r="B41" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="C41">
         <v>0</v>
@@ -1135,7 +1126,7 @@
         <v>0</v>
       </c>
       <c r="E41">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="42" spans="1:5">
@@ -1143,7 +1134,7 @@
         <v>45352</v>
       </c>
       <c r="B42" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="C42">
         <v>0</v>
@@ -1160,7 +1151,7 @@
         <v>45352</v>
       </c>
       <c r="B43" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="C43">
         <v>0</v>
@@ -1177,7 +1168,7 @@
         <v>45352</v>
       </c>
       <c r="B44" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="C44">
         <v>0</v>
@@ -1186,7 +1177,7 @@
         <v>0</v>
       </c>
       <c r="E44">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="45" spans="1:5">
@@ -1194,7 +1185,7 @@
         <v>45352</v>
       </c>
       <c r="B45" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="C45">
         <v>0</v>
@@ -1211,7 +1202,7 @@
         <v>45352</v>
       </c>
       <c r="B46" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="C46">
         <v>0</v>
@@ -1225,10 +1216,10 @@
     </row>
     <row r="47" spans="1:5">
       <c r="A47" s="2">
-        <v>45383</v>
+        <v>45352</v>
       </c>
       <c r="B47" t="s">
-        <v>5</v>
+        <v>17</v>
       </c>
       <c r="C47">
         <v>0</v>
@@ -1242,10 +1233,10 @@
     </row>
     <row r="48" spans="1:5">
       <c r="A48" s="2">
-        <v>45383</v>
+        <v>45352</v>
       </c>
       <c r="B48" t="s">
-        <v>6</v>
+        <v>18</v>
       </c>
       <c r="C48">
         <v>0</v>
@@ -1259,10 +1250,10 @@
     </row>
     <row r="49" spans="1:5">
       <c r="A49" s="2">
-        <v>45383</v>
+        <v>45352</v>
       </c>
       <c r="B49" t="s">
-        <v>7</v>
+        <v>19</v>
       </c>
       <c r="C49">
         <v>0</v>
@@ -1278,9 +1269,6 @@
       <c r="A50" s="2">
         <v>45383</v>
       </c>
-      <c r="B50" t="s">
-        <v>8</v>
-      </c>
       <c r="C50">
         <v>0</v>
       </c>
@@ -1288,7 +1276,7 @@
         <v>0</v>
       </c>
       <c r="E50">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="51" spans="1:5">
@@ -1296,7 +1284,7 @@
         <v>45383</v>
       </c>
       <c r="B51" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="C51">
         <v>0</v>
@@ -1305,7 +1293,7 @@
         <v>0</v>
       </c>
       <c r="E51">
-        <v>12</v>
+        <v>0</v>
       </c>
     </row>
     <row r="52" spans="1:5">
@@ -1313,7 +1301,7 @@
         <v>45383</v>
       </c>
       <c r="B52" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="C52">
         <v>0</v>
@@ -1322,7 +1310,7 @@
         <v>0</v>
       </c>
       <c r="E52">
-        <v>12</v>
+        <v>0</v>
       </c>
     </row>
     <row r="53" spans="1:5">
@@ -1330,7 +1318,7 @@
         <v>45383</v>
       </c>
       <c r="B53" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="C53">
         <v>0</v>
@@ -1347,7 +1335,7 @@
         <v>45383</v>
       </c>
       <c r="B54" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="C54">
         <v>0</v>
@@ -1364,7 +1352,7 @@
         <v>45383</v>
       </c>
       <c r="B55" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="C55">
         <v>0</v>
@@ -1373,7 +1361,7 @@
         <v>0</v>
       </c>
       <c r="E55">
-        <v>0</v>
+        <v>12</v>
       </c>
     </row>
     <row r="56" spans="1:5">
@@ -1381,7 +1369,7 @@
         <v>45383</v>
       </c>
       <c r="B56" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="C56">
         <v>0</v>
@@ -1390,7 +1378,7 @@
         <v>0</v>
       </c>
       <c r="E56">
-        <v>0</v>
+        <v>12</v>
       </c>
     </row>
     <row r="57" spans="1:5">
@@ -1398,7 +1386,7 @@
         <v>45383</v>
       </c>
       <c r="B57" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="C57">
         <v>0</v>
@@ -1415,7 +1403,7 @@
         <v>45383</v>
       </c>
       <c r="B58" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="C58">
         <v>0</v>
@@ -1432,16 +1420,16 @@
         <v>45383</v>
       </c>
       <c r="B59" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="C59">
         <v>0</v>
       </c>
       <c r="D59">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E59">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="60" spans="1:5">
@@ -1449,7 +1437,7 @@
         <v>45383</v>
       </c>
       <c r="B60" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="C60">
         <v>0</v>
@@ -1466,7 +1454,7 @@
         <v>45383</v>
       </c>
       <c r="B61" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="C61">
         <v>0</v>
@@ -1480,10 +1468,10 @@
     </row>
     <row r="62" spans="1:5">
       <c r="A62" s="2">
-        <v>45413</v>
+        <v>45383</v>
       </c>
       <c r="B62" t="s">
-        <v>5</v>
+        <v>16</v>
       </c>
       <c r="C62">
         <v>0</v>
@@ -1497,27 +1485,27 @@
     </row>
     <row r="63" spans="1:5">
       <c r="A63" s="2">
-        <v>45413</v>
+        <v>45383</v>
       </c>
       <c r="B63" t="s">
-        <v>6</v>
+        <v>17</v>
       </c>
       <c r="C63">
         <v>0</v>
       </c>
       <c r="D63">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E63">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="64" spans="1:5">
       <c r="A64" s="2">
-        <v>45413</v>
+        <v>45383</v>
       </c>
       <c r="B64" t="s">
-        <v>7</v>
+        <v>18</v>
       </c>
       <c r="C64">
         <v>0</v>
@@ -1531,10 +1519,10 @@
     </row>
     <row r="65" spans="1:5">
       <c r="A65" s="2">
-        <v>45413</v>
+        <v>45383</v>
       </c>
       <c r="B65" t="s">
-        <v>8</v>
+        <v>19</v>
       </c>
       <c r="C65">
         <v>0</v>
@@ -1550,9 +1538,6 @@
       <c r="A66" s="2">
         <v>45413</v>
       </c>
-      <c r="B66" t="s">
-        <v>9</v>
-      </c>
       <c r="C66">
         <v>0</v>
       </c>
@@ -1560,7 +1545,7 @@
         <v>0</v>
       </c>
       <c r="E66">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="67" spans="1:5">
@@ -1568,7 +1553,7 @@
         <v>45413</v>
       </c>
       <c r="B67" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="C67">
         <v>0</v>
@@ -1577,7 +1562,7 @@
         <v>0</v>
       </c>
       <c r="E67">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="68" spans="1:5">
@@ -1585,7 +1570,7 @@
         <v>45413</v>
       </c>
       <c r="B68" t="s">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="C68">
         <v>0</v>
@@ -1602,7 +1587,7 @@
         <v>45413</v>
       </c>
       <c r="B69" t="s">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="C69">
         <v>0</v>
@@ -1619,7 +1604,7 @@
         <v>45413</v>
       </c>
       <c r="B70" t="s">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="C70">
         <v>0</v>
@@ -1636,7 +1621,7 @@
         <v>45413</v>
       </c>
       <c r="B71" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="C71">
         <v>0</v>
@@ -1645,7 +1630,7 @@
         <v>0</v>
       </c>
       <c r="E71">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="72" spans="1:5">
@@ -1653,7 +1638,7 @@
         <v>45413</v>
       </c>
       <c r="B72" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="C72">
         <v>0</v>
@@ -1662,7 +1647,7 @@
         <v>0</v>
       </c>
       <c r="E72">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="73" spans="1:5">
@@ -1670,7 +1655,7 @@
         <v>45413</v>
       </c>
       <c r="B73" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="C73">
         <v>0</v>
@@ -1687,7 +1672,7 @@
         <v>45413</v>
       </c>
       <c r="B74" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="C74">
         <v>0</v>
@@ -1704,7 +1689,7 @@
         <v>45413</v>
       </c>
       <c r="B75" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="C75">
         <v>0</v>
@@ -1721,7 +1706,7 @@
         <v>45413</v>
       </c>
       <c r="B76" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="C76">
         <v>0</v>
@@ -1735,10 +1720,10 @@
     </row>
     <row r="77" spans="1:5">
       <c r="A77" s="2">
-        <v>45444</v>
+        <v>45413</v>
       </c>
       <c r="B77" t="s">
-        <v>5</v>
+        <v>15</v>
       </c>
       <c r="C77">
         <v>0</v>
@@ -1747,15 +1732,15 @@
         <v>0</v>
       </c>
       <c r="E77">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="78" spans="1:5">
       <c r="A78" s="2">
-        <v>45444</v>
+        <v>45413</v>
       </c>
       <c r="B78" t="s">
-        <v>6</v>
+        <v>16</v>
       </c>
       <c r="C78">
         <v>0</v>
@@ -1769,10 +1754,10 @@
     </row>
     <row r="79" spans="1:5">
       <c r="A79" s="2">
-        <v>45444</v>
+        <v>45413</v>
       </c>
       <c r="B79" t="s">
-        <v>7</v>
+        <v>17</v>
       </c>
       <c r="C79">
         <v>0</v>
@@ -1781,15 +1766,15 @@
         <v>0</v>
       </c>
       <c r="E79">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="80" spans="1:5">
       <c r="A80" s="2">
-        <v>45444</v>
+        <v>45413</v>
       </c>
       <c r="B80" t="s">
-        <v>8</v>
+        <v>18</v>
       </c>
       <c r="C80">
         <v>0</v>
@@ -1803,10 +1788,10 @@
     </row>
     <row r="81" spans="1:5">
       <c r="A81" s="2">
-        <v>45444</v>
+        <v>45413</v>
       </c>
       <c r="B81" t="s">
-        <v>9</v>
+        <v>19</v>
       </c>
       <c r="C81">
         <v>0</v>
@@ -1815,16 +1800,13 @@
         <v>0</v>
       </c>
       <c r="E81">
-        <v>23</v>
+        <v>0</v>
       </c>
     </row>
     <row r="82" spans="1:5">
       <c r="A82" s="2">
         <v>45444</v>
       </c>
-      <c r="B82" t="s">
-        <v>10</v>
-      </c>
       <c r="C82">
         <v>0</v>
       </c>
@@ -1832,7 +1814,7 @@
         <v>0</v>
       </c>
       <c r="E82">
-        <v>7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="83" spans="1:5">
@@ -1840,7 +1822,7 @@
         <v>45444</v>
       </c>
       <c r="B83" t="s">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="C83">
         <v>0</v>
@@ -1849,7 +1831,7 @@
         <v>0</v>
       </c>
       <c r="E83">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="84" spans="1:5">
@@ -1857,7 +1839,7 @@
         <v>45444</v>
       </c>
       <c r="B84" t="s">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="C84">
         <v>0</v>
@@ -1874,7 +1856,7 @@
         <v>45444</v>
       </c>
       <c r="B85" t="s">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="C85">
         <v>0</v>
@@ -1883,7 +1865,7 @@
         <v>0</v>
       </c>
       <c r="E85">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="86" spans="1:5">
@@ -1891,7 +1873,7 @@
         <v>45444</v>
       </c>
       <c r="B86" t="s">
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="C86">
         <v>0</v>
@@ -1908,7 +1890,7 @@
         <v>45444</v>
       </c>
       <c r="B87" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="C87">
         <v>0</v>
@@ -1917,7 +1899,7 @@
         <v>0</v>
       </c>
       <c r="E87">
-        <v>0</v>
+        <v>23</v>
       </c>
     </row>
     <row r="88" spans="1:5">
@@ -1925,7 +1907,7 @@
         <v>45444</v>
       </c>
       <c r="B88" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="C88">
         <v>0</v>
@@ -1934,7 +1916,7 @@
         <v>0</v>
       </c>
       <c r="E88">
-        <v>1</v>
+        <v>7</v>
       </c>
     </row>
     <row r="89" spans="1:5">
@@ -1942,7 +1924,7 @@
         <v>45444</v>
       </c>
       <c r="B89" t="s">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="C89">
         <v>0</v>
@@ -1959,7 +1941,7 @@
         <v>45444</v>
       </c>
       <c r="B90" t="s">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="C90">
         <v>0</v>
@@ -1976,7 +1958,7 @@
         <v>45444</v>
       </c>
       <c r="B91" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="C91">
         <v>0</v>
@@ -1990,10 +1972,10 @@
     </row>
     <row r="92" spans="1:5">
       <c r="A92" s="2">
-        <v>45474</v>
+        <v>45444</v>
       </c>
       <c r="B92" t="s">
-        <v>5</v>
+        <v>14</v>
       </c>
       <c r="C92">
         <v>0</v>
@@ -2007,10 +1989,10 @@
     </row>
     <row r="93" spans="1:5">
       <c r="A93" s="2">
-        <v>45474</v>
+        <v>45444</v>
       </c>
       <c r="B93" t="s">
-        <v>6</v>
+        <v>15</v>
       </c>
       <c r="C93">
         <v>0</v>
@@ -2024,10 +2006,10 @@
     </row>
     <row r="94" spans="1:5">
       <c r="A94" s="2">
-        <v>45474</v>
+        <v>45444</v>
       </c>
       <c r="B94" t="s">
-        <v>7</v>
+        <v>16</v>
       </c>
       <c r="C94">
         <v>0</v>
@@ -2036,15 +2018,15 @@
         <v>0</v>
       </c>
       <c r="E94">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="95" spans="1:5">
       <c r="A95" s="2">
-        <v>45474</v>
+        <v>45444</v>
       </c>
       <c r="B95" t="s">
-        <v>8</v>
+        <v>17</v>
       </c>
       <c r="C95">
         <v>0</v>
@@ -2058,10 +2040,10 @@
     </row>
     <row r="96" spans="1:5">
       <c r="A96" s="2">
-        <v>45474</v>
+        <v>45444</v>
       </c>
       <c r="B96" t="s">
-        <v>9</v>
+        <v>18</v>
       </c>
       <c r="C96">
         <v>0</v>
@@ -2075,10 +2057,10 @@
     </row>
     <row r="97" spans="1:5">
       <c r="A97" s="2">
-        <v>45474</v>
+        <v>45444</v>
       </c>
       <c r="B97" t="s">
-        <v>10</v>
+        <v>19</v>
       </c>
       <c r="C97">
         <v>0</v>
@@ -2094,9 +2076,6 @@
       <c r="A98" s="2">
         <v>45474</v>
       </c>
-      <c r="B98" t="s">
-        <v>11</v>
-      </c>
       <c r="C98">
         <v>0</v>
       </c>
@@ -2112,7 +2091,7 @@
         <v>45474</v>
       </c>
       <c r="B99" t="s">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="C99">
         <v>0</v>
@@ -2129,7 +2108,7 @@
         <v>45474</v>
       </c>
       <c r="B100" t="s">
-        <v>13</v>
+        <v>6</v>
       </c>
       <c r="C100">
         <v>0</v>
@@ -2146,7 +2125,7 @@
         <v>45474</v>
       </c>
       <c r="B101" t="s">
-        <v>14</v>
+        <v>7</v>
       </c>
       <c r="C101">
         <v>0</v>
@@ -2163,7 +2142,7 @@
         <v>45474</v>
       </c>
       <c r="B102" t="s">
-        <v>15</v>
+        <v>8</v>
       </c>
       <c r="C102">
         <v>0</v>
@@ -2180,7 +2159,7 @@
         <v>45474</v>
       </c>
       <c r="B103" t="s">
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="C103">
         <v>0</v>
@@ -2197,7 +2176,7 @@
         <v>45474</v>
       </c>
       <c r="B104" t="s">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="C104">
         <v>0</v>
@@ -2214,7 +2193,7 @@
         <v>45474</v>
       </c>
       <c r="B105" t="s">
-        <v>18</v>
+        <v>11</v>
       </c>
       <c r="C105">
         <v>0</v>
@@ -2231,7 +2210,7 @@
         <v>45474</v>
       </c>
       <c r="B106" t="s">
-        <v>19</v>
+        <v>12</v>
       </c>
       <c r="C106">
         <v>0</v>
@@ -2245,10 +2224,10 @@
     </row>
     <row r="107" spans="1:5">
       <c r="A107" s="2">
-        <v>45505</v>
+        <v>45474</v>
       </c>
       <c r="B107" t="s">
-        <v>5</v>
+        <v>13</v>
       </c>
       <c r="C107">
         <v>0</v>
@@ -2262,10 +2241,10 @@
     </row>
     <row r="108" spans="1:5">
       <c r="A108" s="2">
-        <v>45505</v>
+        <v>45474</v>
       </c>
       <c r="B108" t="s">
-        <v>6</v>
+        <v>14</v>
       </c>
       <c r="C108">
         <v>0</v>
@@ -2279,10 +2258,10 @@
     </row>
     <row r="109" spans="1:5">
       <c r="A109" s="2">
-        <v>45505</v>
+        <v>45474</v>
       </c>
       <c r="B109" t="s">
-        <v>7</v>
+        <v>15</v>
       </c>
       <c r="C109">
         <v>0</v>
@@ -2296,10 +2275,10 @@
     </row>
     <row r="110" spans="1:5">
       <c r="A110" s="2">
-        <v>45505</v>
+        <v>45474</v>
       </c>
       <c r="B110" t="s">
-        <v>8</v>
+        <v>16</v>
       </c>
       <c r="C110">
         <v>0</v>
@@ -2313,10 +2292,10 @@
     </row>
     <row r="111" spans="1:5">
       <c r="A111" s="2">
-        <v>45505</v>
+        <v>45474</v>
       </c>
       <c r="B111" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="C111">
         <v>0</v>
@@ -2325,15 +2304,15 @@
         <v>0</v>
       </c>
       <c r="E111">
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="112" spans="1:5">
       <c r="A112" s="2">
-        <v>45505</v>
+        <v>45474</v>
       </c>
       <c r="B112" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="C112">
         <v>0</v>
@@ -2342,15 +2321,15 @@
         <v>0</v>
       </c>
       <c r="E112">
-        <v>5</v>
+        <v>0</v>
       </c>
     </row>
     <row r="113" spans="1:5">
       <c r="A113" s="2">
-        <v>45505</v>
+        <v>45474</v>
       </c>
       <c r="B113" t="s">
-        <v>11</v>
+        <v>19</v>
       </c>
       <c r="C113">
         <v>0</v>
@@ -2366,9 +2345,6 @@
       <c r="A114" s="2">
         <v>45505</v>
       </c>
-      <c r="B114" t="s">
-        <v>12</v>
-      </c>
       <c r="C114">
         <v>0</v>
       </c>
@@ -2376,7 +2352,7 @@
         <v>0</v>
       </c>
       <c r="E114">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="115" spans="1:5">
@@ -2384,7 +2360,7 @@
         <v>45505</v>
       </c>
       <c r="B115" t="s">
-        <v>13</v>
+        <v>5</v>
       </c>
       <c r="C115">
         <v>0</v>
@@ -2401,7 +2377,7 @@
         <v>45505</v>
       </c>
       <c r="B116" t="s">
-        <v>14</v>
+        <v>6</v>
       </c>
       <c r="C116">
         <v>0</v>
@@ -2418,7 +2394,7 @@
         <v>45505</v>
       </c>
       <c r="B117" t="s">
-        <v>15</v>
+        <v>7</v>
       </c>
       <c r="C117">
         <v>0</v>
@@ -2435,7 +2411,7 @@
         <v>45505</v>
       </c>
       <c r="B118" t="s">
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="C118">
         <v>0</v>
@@ -2452,7 +2428,7 @@
         <v>45505</v>
       </c>
       <c r="B119" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="C119">
         <v>0</v>
@@ -2461,7 +2437,7 @@
         <v>0</v>
       </c>
       <c r="E119">
-        <v>0</v>
+        <v>4</v>
       </c>
     </row>
     <row r="120" spans="1:5">
@@ -2469,7 +2445,7 @@
         <v>45505</v>
       </c>
       <c r="B120" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="C120">
         <v>0</v>
@@ -2478,7 +2454,7 @@
         <v>0</v>
       </c>
       <c r="E120">
-        <v>0</v>
+        <v>6</v>
       </c>
     </row>
     <row r="121" spans="1:5">
@@ -2486,7 +2462,7 @@
         <v>45505</v>
       </c>
       <c r="B121" t="s">
-        <v>19</v>
+        <v>11</v>
       </c>
       <c r="C121">
         <v>0</v>
@@ -2500,13 +2476,13 @@
     </row>
     <row r="122" spans="1:5">
       <c r="A122" s="2">
-        <v>45536</v>
+        <v>45505</v>
       </c>
       <c r="B122" t="s">
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="C122">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D122">
         <v>0</v>
@@ -2517,10 +2493,10 @@
     </row>
     <row r="123" spans="1:5">
       <c r="A123" s="2">
-        <v>45536</v>
+        <v>45505</v>
       </c>
       <c r="B123" t="s">
-        <v>6</v>
+        <v>13</v>
       </c>
       <c r="C123">
         <v>0</v>
@@ -2534,10 +2510,10 @@
     </row>
     <row r="124" spans="1:5">
       <c r="A124" s="2">
-        <v>45536</v>
+        <v>45505</v>
       </c>
       <c r="B124" t="s">
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="C124">
         <v>0</v>
@@ -2551,10 +2527,10 @@
     </row>
     <row r="125" spans="1:5">
       <c r="A125" s="2">
-        <v>45536</v>
+        <v>45505</v>
       </c>
       <c r="B125" t="s">
-        <v>8</v>
+        <v>15</v>
       </c>
       <c r="C125">
         <v>0</v>
@@ -2568,10 +2544,10 @@
     </row>
     <row r="126" spans="1:5">
       <c r="A126" s="2">
-        <v>45536</v>
+        <v>45505</v>
       </c>
       <c r="B126" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="C126">
         <v>0</v>
@@ -2585,10 +2561,10 @@
     </row>
     <row r="127" spans="1:5">
       <c r="A127" s="2">
-        <v>45536</v>
+        <v>45505</v>
       </c>
       <c r="B127" t="s">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="C127">
         <v>0</v>
@@ -2602,10 +2578,10 @@
     </row>
     <row r="128" spans="1:5">
       <c r="A128" s="2">
-        <v>45536</v>
+        <v>45505</v>
       </c>
       <c r="B128" t="s">
-        <v>11</v>
+        <v>18</v>
       </c>
       <c r="C128">
         <v>0</v>
@@ -2619,10 +2595,10 @@
     </row>
     <row r="129" spans="1:5">
       <c r="A129" s="2">
-        <v>45536</v>
+        <v>45505</v>
       </c>
       <c r="B129" t="s">
-        <v>12</v>
+        <v>19</v>
       </c>
       <c r="C129">
         <v>0</v>
@@ -2638,9 +2614,6 @@
       <c r="A130" s="2">
         <v>45536</v>
       </c>
-      <c r="B130" t="s">
-        <v>13</v>
-      </c>
       <c r="C130">
         <v>0</v>
       </c>
@@ -2656,7 +2629,7 @@
         <v>45536</v>
       </c>
       <c r="B131" t="s">
-        <v>14</v>
+        <v>5</v>
       </c>
       <c r="C131">
         <v>1</v>
@@ -2673,7 +2646,7 @@
         <v>45536</v>
       </c>
       <c r="B132" t="s">
-        <v>15</v>
+        <v>6</v>
       </c>
       <c r="C132">
         <v>0</v>
@@ -2690,10 +2663,10 @@
         <v>45536</v>
       </c>
       <c r="B133" t="s">
-        <v>16</v>
+        <v>7</v>
       </c>
       <c r="C133">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="D133">
         <v>0</v>
@@ -2707,7 +2680,7 @@
         <v>45536</v>
       </c>
       <c r="B134" t="s">
-        <v>17</v>
+        <v>8</v>
       </c>
       <c r="C134">
         <v>0</v>
@@ -2724,7 +2697,7 @@
         <v>45536</v>
       </c>
       <c r="B135" t="s">
-        <v>18</v>
+        <v>9</v>
       </c>
       <c r="C135">
         <v>0</v>
@@ -2741,7 +2714,7 @@
         <v>45536</v>
       </c>
       <c r="B136" t="s">
-        <v>19</v>
+        <v>10</v>
       </c>
       <c r="C136">
         <v>0</v>
@@ -2755,10 +2728,10 @@
     </row>
     <row r="137" spans="1:5">
       <c r="A137" s="2">
-        <v>45566</v>
+        <v>45536</v>
       </c>
       <c r="B137" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="C137">
         <v>0</v>
@@ -2772,10 +2745,10 @@
     </row>
     <row r="138" spans="1:5">
       <c r="A138" s="2">
-        <v>45566</v>
+        <v>45536</v>
       </c>
       <c r="B138" t="s">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="C138">
         <v>0</v>
@@ -2789,10 +2762,10 @@
     </row>
     <row r="139" spans="1:5">
       <c r="A139" s="2">
-        <v>45566</v>
+        <v>45536</v>
       </c>
       <c r="B139" t="s">
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="C139">
         <v>0</v>
@@ -2806,13 +2779,13 @@
     </row>
     <row r="140" spans="1:5">
       <c r="A140" s="2">
-        <v>45566</v>
+        <v>45536</v>
       </c>
       <c r="B140" t="s">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="C140">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D140">
         <v>0</v>
@@ -2823,10 +2796,10 @@
     </row>
     <row r="141" spans="1:5">
       <c r="A141" s="2">
-        <v>45566</v>
+        <v>45536</v>
       </c>
       <c r="B141" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="C141">
         <v>0</v>
@@ -2840,13 +2813,13 @@
     </row>
     <row r="142" spans="1:5">
       <c r="A142" s="2">
-        <v>45566</v>
+        <v>45536</v>
       </c>
       <c r="B142" t="s">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="C142">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="D142">
         <v>0</v>
@@ -2857,10 +2830,10 @@
     </row>
     <row r="143" spans="1:5">
       <c r="A143" s="2">
-        <v>45566</v>
+        <v>45536</v>
       </c>
       <c r="B143" t="s">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="C143">
         <v>0</v>
@@ -2874,10 +2847,10 @@
     </row>
     <row r="144" spans="1:5">
       <c r="A144" s="2">
-        <v>45566</v>
+        <v>45536</v>
       </c>
       <c r="B144" t="s">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="C144">
         <v>0</v>
@@ -2891,10 +2864,10 @@
     </row>
     <row r="145" spans="1:5">
       <c r="A145" s="2">
-        <v>45566</v>
+        <v>45536</v>
       </c>
       <c r="B145" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="C145">
         <v>0</v>
@@ -2910,9 +2883,6 @@
       <c r="A146" s="2">
         <v>45566</v>
       </c>
-      <c r="B146" t="s">
-        <v>14</v>
-      </c>
       <c r="C146">
         <v>0</v>
       </c>
@@ -2928,7 +2898,7 @@
         <v>45566</v>
       </c>
       <c r="B147" t="s">
-        <v>15</v>
+        <v>5</v>
       </c>
       <c r="C147">
         <v>0</v>
@@ -2945,7 +2915,7 @@
         <v>45566</v>
       </c>
       <c r="B148" t="s">
-        <v>16</v>
+        <v>6</v>
       </c>
       <c r="C148">
         <v>0</v>
@@ -2962,7 +2932,7 @@
         <v>45566</v>
       </c>
       <c r="B149" t="s">
-        <v>17</v>
+        <v>7</v>
       </c>
       <c r="C149">
         <v>0</v>
@@ -2979,7 +2949,7 @@
         <v>45566</v>
       </c>
       <c r="B150" t="s">
-        <v>18</v>
+        <v>8</v>
       </c>
       <c r="C150">
         <v>0</v>
@@ -2996,7 +2966,7 @@
         <v>45566</v>
       </c>
       <c r="B151" t="s">
-        <v>19</v>
+        <v>9</v>
       </c>
       <c r="C151">
         <v>0</v>
@@ -3010,10 +2980,10 @@
     </row>
     <row r="152" spans="1:5">
       <c r="A152" s="2">
-        <v>45597</v>
+        <v>45566</v>
       </c>
       <c r="B152" t="s">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="C152">
         <v>0</v>
@@ -3027,10 +2997,10 @@
     </row>
     <row r="153" spans="1:5">
       <c r="A153" s="2">
-        <v>45597</v>
+        <v>45566</v>
       </c>
       <c r="B153" t="s">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="C153">
         <v>0</v>
@@ -3044,10 +3014,10 @@
     </row>
     <row r="154" spans="1:5">
       <c r="A154" s="2">
-        <v>45597</v>
+        <v>45566</v>
       </c>
       <c r="B154" t="s">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="C154">
         <v>0</v>
@@ -3061,10 +3031,10 @@
     </row>
     <row r="155" spans="1:5">
       <c r="A155" s="2">
-        <v>45597</v>
+        <v>45566</v>
       </c>
       <c r="B155" t="s">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="C155">
         <v>0</v>
@@ -3078,10 +3048,10 @@
     </row>
     <row r="156" spans="1:5">
       <c r="A156" s="2">
-        <v>45597</v>
+        <v>45566</v>
       </c>
       <c r="B156" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="C156">
         <v>0</v>
@@ -3095,10 +3065,10 @@
     </row>
     <row r="157" spans="1:5">
       <c r="A157" s="2">
-        <v>45597</v>
+        <v>45566</v>
       </c>
       <c r="B157" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="C157">
         <v>0</v>
@@ -3112,10 +3082,10 @@
     </row>
     <row r="158" spans="1:5">
       <c r="A158" s="2">
-        <v>45597</v>
+        <v>45566</v>
       </c>
       <c r="B158" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="C158">
         <v>0</v>
@@ -3129,10 +3099,10 @@
     </row>
     <row r="159" spans="1:5">
       <c r="A159" s="2">
-        <v>45597</v>
+        <v>45566</v>
       </c>
       <c r="B159" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="C159">
         <v>0</v>
@@ -3146,10 +3116,10 @@
     </row>
     <row r="160" spans="1:5">
       <c r="A160" s="2">
-        <v>45597</v>
+        <v>45566</v>
       </c>
       <c r="B160" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="C160">
         <v>0</v>
@@ -3163,10 +3133,10 @@
     </row>
     <row r="161" spans="1:5">
       <c r="A161" s="2">
-        <v>45597</v>
+        <v>45566</v>
       </c>
       <c r="B161" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="C161">
         <v>0</v>
@@ -3182,9 +3152,6 @@
       <c r="A162" s="2">
         <v>45597</v>
       </c>
-      <c r="B162" t="s">
-        <v>15</v>
-      </c>
       <c r="C162">
         <v>0</v>
       </c>
@@ -3200,7 +3167,7 @@
         <v>45597</v>
       </c>
       <c r="B163" t="s">
-        <v>16</v>
+        <v>5</v>
       </c>
       <c r="C163">
         <v>0</v>
@@ -3217,7 +3184,7 @@
         <v>45597</v>
       </c>
       <c r="B164" t="s">
-        <v>17</v>
+        <v>6</v>
       </c>
       <c r="C164">
         <v>0</v>
@@ -3234,7 +3201,7 @@
         <v>45597</v>
       </c>
       <c r="B165" t="s">
-        <v>18</v>
+        <v>7</v>
       </c>
       <c r="C165">
         <v>0</v>
@@ -3251,7 +3218,7 @@
         <v>45597</v>
       </c>
       <c r="B166" t="s">
-        <v>19</v>
+        <v>8</v>
       </c>
       <c r="C166">
         <v>0</v>
@@ -3265,10 +3232,10 @@
     </row>
     <row r="167" spans="1:5">
       <c r="A167" s="2">
-        <v>45627</v>
+        <v>45597</v>
       </c>
       <c r="B167" t="s">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="C167">
         <v>0</v>
@@ -3282,10 +3249,10 @@
     </row>
     <row r="168" spans="1:5">
       <c r="A168" s="2">
-        <v>45627</v>
+        <v>45597</v>
       </c>
       <c r="B168" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="C168">
         <v>0</v>
@@ -3299,10 +3266,10 @@
     </row>
     <row r="169" spans="1:5">
       <c r="A169" s="2">
-        <v>45627</v>
+        <v>45597</v>
       </c>
       <c r="B169" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="C169">
         <v>0</v>
@@ -3316,10 +3283,10 @@
     </row>
     <row r="170" spans="1:5">
       <c r="A170" s="2">
-        <v>45627</v>
+        <v>45597</v>
       </c>
       <c r="B170" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="C170">
         <v>0</v>
@@ -3333,10 +3300,10 @@
     </row>
     <row r="171" spans="1:5">
       <c r="A171" s="2">
-        <v>45627</v>
+        <v>45597</v>
       </c>
       <c r="B171" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="C171">
         <v>0</v>
@@ -3350,10 +3317,10 @@
     </row>
     <row r="172" spans="1:5">
       <c r="A172" s="2">
-        <v>45627</v>
+        <v>45597</v>
       </c>
       <c r="B172" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="C172">
         <v>0</v>
@@ -3367,10 +3334,10 @@
     </row>
     <row r="173" spans="1:5">
       <c r="A173" s="2">
-        <v>45627</v>
+        <v>45597</v>
       </c>
       <c r="B173" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="C173">
         <v>0</v>
@@ -3384,10 +3351,10 @@
     </row>
     <row r="174" spans="1:5">
       <c r="A174" s="2">
-        <v>45627</v>
+        <v>45597</v>
       </c>
       <c r="B174" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="C174">
         <v>0</v>
@@ -3401,10 +3368,10 @@
     </row>
     <row r="175" spans="1:5">
       <c r="A175" s="2">
-        <v>45627</v>
+        <v>45597</v>
       </c>
       <c r="B175" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="C175">
         <v>0</v>
@@ -3418,10 +3385,10 @@
     </row>
     <row r="176" spans="1:5">
       <c r="A176" s="2">
-        <v>45627</v>
+        <v>45597</v>
       </c>
       <c r="B176" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="C176">
         <v>0</v>
@@ -3435,10 +3402,10 @@
     </row>
     <row r="177" spans="1:5">
       <c r="A177" s="2">
-        <v>45627</v>
+        <v>45597</v>
       </c>
       <c r="B177" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="C177">
         <v>0</v>
@@ -3454,9 +3421,6 @@
       <c r="A178" s="2">
         <v>45627</v>
       </c>
-      <c r="B178" t="s">
-        <v>16</v>
-      </c>
       <c r="C178">
         <v>0</v>
       </c>
@@ -3472,7 +3436,7 @@
         <v>45627</v>
       </c>
       <c r="B179" t="s">
-        <v>17</v>
+        <v>5</v>
       </c>
       <c r="C179">
         <v>0</v>
@@ -3489,7 +3453,7 @@
         <v>45627</v>
       </c>
       <c r="B180" t="s">
-        <v>18</v>
+        <v>6</v>
       </c>
       <c r="C180">
         <v>0</v>
@@ -3506,15 +3470,219 @@
         <v>45627</v>
       </c>
       <c r="B181" t="s">
+        <v>7</v>
+      </c>
+      <c r="C181">
+        <v>0</v>
+      </c>
+      <c r="D181">
+        <v>0</v>
+      </c>
+      <c r="E181">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="182" spans="1:5">
+      <c r="A182" s="2">
+        <v>45627</v>
+      </c>
+      <c r="B182" t="s">
+        <v>8</v>
+      </c>
+      <c r="C182">
+        <v>0</v>
+      </c>
+      <c r="D182">
+        <v>0</v>
+      </c>
+      <c r="E182">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="183" spans="1:5">
+      <c r="A183" s="2">
+        <v>45627</v>
+      </c>
+      <c r="B183" t="s">
+        <v>9</v>
+      </c>
+      <c r="C183">
+        <v>0</v>
+      </c>
+      <c r="D183">
+        <v>0</v>
+      </c>
+      <c r="E183">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="184" spans="1:5">
+      <c r="A184" s="2">
+        <v>45627</v>
+      </c>
+      <c r="B184" t="s">
+        <v>10</v>
+      </c>
+      <c r="C184">
+        <v>0</v>
+      </c>
+      <c r="D184">
+        <v>0</v>
+      </c>
+      <c r="E184">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="185" spans="1:5">
+      <c r="A185" s="2">
+        <v>45627</v>
+      </c>
+      <c r="B185" t="s">
+        <v>11</v>
+      </c>
+      <c r="C185">
+        <v>0</v>
+      </c>
+      <c r="D185">
+        <v>0</v>
+      </c>
+      <c r="E185">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="186" spans="1:5">
+      <c r="A186" s="2">
+        <v>45627</v>
+      </c>
+      <c r="B186" t="s">
+        <v>12</v>
+      </c>
+      <c r="C186">
+        <v>0</v>
+      </c>
+      <c r="D186">
+        <v>0</v>
+      </c>
+      <c r="E186">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="187" spans="1:5">
+      <c r="A187" s="2">
+        <v>45627</v>
+      </c>
+      <c r="B187" t="s">
+        <v>13</v>
+      </c>
+      <c r="C187">
+        <v>0</v>
+      </c>
+      <c r="D187">
+        <v>0</v>
+      </c>
+      <c r="E187">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="188" spans="1:5">
+      <c r="A188" s="2">
+        <v>45627</v>
+      </c>
+      <c r="B188" t="s">
+        <v>14</v>
+      </c>
+      <c r="C188">
+        <v>0</v>
+      </c>
+      <c r="D188">
+        <v>0</v>
+      </c>
+      <c r="E188">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="189" spans="1:5">
+      <c r="A189" s="2">
+        <v>45627</v>
+      </c>
+      <c r="B189" t="s">
+        <v>15</v>
+      </c>
+      <c r="C189">
+        <v>0</v>
+      </c>
+      <c r="D189">
+        <v>0</v>
+      </c>
+      <c r="E189">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="190" spans="1:5">
+      <c r="A190" s="2">
+        <v>45627</v>
+      </c>
+      <c r="B190" t="s">
+        <v>16</v>
+      </c>
+      <c r="C190">
+        <v>0</v>
+      </c>
+      <c r="D190">
+        <v>0</v>
+      </c>
+      <c r="E190">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="191" spans="1:5">
+      <c r="A191" s="2">
+        <v>45627</v>
+      </c>
+      <c r="B191" t="s">
+        <v>17</v>
+      </c>
+      <c r="C191">
+        <v>0</v>
+      </c>
+      <c r="D191">
+        <v>0</v>
+      </c>
+      <c r="E191">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="192" spans="1:5">
+      <c r="A192" s="2">
+        <v>45627</v>
+      </c>
+      <c r="B192" t="s">
+        <v>18</v>
+      </c>
+      <c r="C192">
+        <v>0</v>
+      </c>
+      <c r="D192">
+        <v>0</v>
+      </c>
+      <c r="E192">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="193" spans="1:5">
+      <c r="A193" s="2">
+        <v>45627</v>
+      </c>
+      <c r="B193" t="s">
         <v>19</v>
       </c>
-      <c r="C181">
-        <v>0</v>
-      </c>
-      <c r="D181">
-        <v>0</v>
-      </c>
-      <c r="E181">
+      <c r="C193">
+        <v>0</v>
+      </c>
+      <c r="D193">
+        <v>0</v>
+      </c>
+      <c r="E193">
         <v>0</v>
       </c>
     </row>

--- a/excel_files/employee_performance_metrics.xlsx
+++ b/excel_files/employee_performance_metrics.xlsx
@@ -2706,7 +2706,7 @@
         <v>0</v>
       </c>
       <c r="E135">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="136" spans="1:5">
@@ -2785,7 +2785,7 @@
         <v>14</v>
       </c>
       <c r="C140">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D140">
         <v>0</v>
